--- a/Shipproject/test/shipproject/model/User_test_cases.xlsx
+++ b/Shipproject/test/shipproject/model/User_test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manir\eclipse-workspace4\Shipproject\test\shipproject\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3163684B-D5B1-4C93-A637-B1E76C24CD18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E39B8D-3F34-4D9F-BABC-5B6DFC721052}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A6AC0A61-0D7B-4586-8788-5A4E47ACE60D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="117">
   <si>
     <t>Test Case Number</t>
   </si>
@@ -790,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054A42B0-00B2-4BA8-9C14-274D8CFD82DF}">
-  <dimension ref="A1:AF71"/>
+  <dimension ref="A1:AF67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1687,7 +1687,7 @@
         <v>39</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>43</v>
@@ -1749,7 +1749,7 @@
         <v>39</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>43</v>
@@ -1786,9 +1786,13 @@
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
+      <c r="W15" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
+      <c r="Y15" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
@@ -1811,10 +1815,10 @@
         <v>39</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>51</v>
@@ -1852,10 +1856,10 @@
         <v>69</v>
       </c>
       <c r="X16" s="4"/>
-      <c r="Y16" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
@@ -1880,7 +1884,7 @@
         <v>43</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>51</v>
@@ -1920,7 +1924,7 @@
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
       <c r="Z17" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
@@ -1946,7 +1950,7 @@
         <v>43</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>51</v>
@@ -1986,7 +1990,7 @@
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
@@ -2012,7 +2016,7 @@
         <v>43</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>51</v>
@@ -2046,14 +2050,10 @@
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
-      <c r="W19" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="W19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
-      <c r="Z19" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
@@ -2078,7 +2078,7 @@
         <v>43</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>51</v>
@@ -2112,10 +2112,14 @@
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
+      <c r="W20" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
+      <c r="Z20" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
@@ -2140,13 +2144,13 @@
         <v>43</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>71</v>
@@ -2174,11 +2178,15 @@
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
+      <c r="W21" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
+      <c r="AA21" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
@@ -2202,13 +2210,13 @@
         <v>43</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>71</v>
@@ -2241,10 +2249,10 @@
       </c>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
-      <c r="Z22" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
@@ -2271,10 +2279,10 @@
         <v>43</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>71</v>
@@ -2309,7 +2317,7 @@
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
       <c r="AA23" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
@@ -2337,10 +2345,10 @@
         <v>43</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>71</v>
@@ -2375,7 +2383,7 @@
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
       <c r="AA24" s="4" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
@@ -2403,10 +2411,10 @@
         <v>43</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>71</v>
@@ -2441,7 +2449,7 @@
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
       <c r="AA25" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
@@ -2469,10 +2477,10 @@
         <v>43</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>71</v>
@@ -2500,15 +2508,11 @@
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
-      <c r="W26" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
-      <c r="AA26" s="4" t="s">
-        <v>91</v>
-      </c>
+      <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
@@ -2535,10 +2539,10 @@
         <v>43</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>71</v>
@@ -2573,7 +2577,7 @@
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
       <c r="AA27" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
@@ -2604,7 +2608,7 @@
         <v>51</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>71</v>
@@ -2632,12 +2636,16 @@
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
+      <c r="W28" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
+      <c r="AB28" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
       <c r="AE28" s="4"/>
@@ -2663,16 +2671,16 @@
         <v>43</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>71</v>
       </c>
       <c r="J29" s="4">
-        <v>4693895980</v>
+        <v>987654321</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>72</v>
@@ -2694,13 +2702,17 @@
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
+      <c r="W29" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
-      <c r="AC29" s="4"/>
+      <c r="AC29" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="AD29" s="4"/>
       <c r="AE29" s="4"/>
       <c r="AF29" s="4"/>
@@ -2725,16 +2737,16 @@
         <v>43</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>71</v>
       </c>
       <c r="J30" s="4">
-        <v>4693895980</v>
+        <v>87654321011</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>72</v>
@@ -2762,11 +2774,11 @@
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
-      <c r="AA30" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
-      <c r="AC30" s="4"/>
+      <c r="AC30" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="AD30" s="4"/>
       <c r="AE30" s="4"/>
       <c r="AF30" s="4"/>
@@ -2794,13 +2806,13 @@
         <v>51</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J31" s="4">
-        <v>4693895980</v>
+      <c r="J31" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>72</v>
@@ -2829,10 +2841,10 @@
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
       <c r="AA31" s="4"/>
-      <c r="AB31" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC31" s="4"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="AD31" s="4"/>
       <c r="AE31" s="4"/>
       <c r="AF31" s="4"/>
@@ -2869,7 +2881,7 @@
         <v>4693895980</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>73</v>
@@ -2888,14 +2900,18 @@
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
+      <c r="W32" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
-      <c r="AD32" s="4"/>
+      <c r="AD32" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="AE32" s="4"/>
       <c r="AF32" s="4"/>
     </row>
@@ -2928,10 +2944,10 @@
         <v>71</v>
       </c>
       <c r="J33" s="4">
-        <v>987654321</v>
+        <v>4693895980</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>73</v>
@@ -2950,17 +2966,13 @@
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
-      <c r="W33" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="W33" s="4"/>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
-      <c r="AC33" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="AC33" s="1"/>
       <c r="AD33" s="4"/>
       <c r="AE33" s="4"/>
       <c r="AF33" s="4"/>
@@ -2994,10 +3006,10 @@
         <v>71</v>
       </c>
       <c r="J34" s="4">
-        <v>87654321011</v>
+        <v>4693895980</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="L34" s="4" t="s">
         <v>73</v>
@@ -3016,17 +3028,13 @@
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
-      <c r="W34" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="W34" s="4"/>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
-      <c r="AC34" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="AC34" s="1"/>
       <c r="AD34" s="4"/>
       <c r="AE34" s="4"/>
       <c r="AF34" s="4"/>
@@ -3059,11 +3067,11 @@
       <c r="I35" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J35" s="5" t="s">
-        <v>55</v>
+      <c r="J35" s="5">
+        <v>4693895980</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>73</v>
@@ -3082,17 +3090,13 @@
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
-      <c r="W35" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="W35" s="4"/>
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
       <c r="AA35" s="4"/>
       <c r="AB35" s="4"/>
-      <c r="AC35" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="AC35" s="1"/>
       <c r="AD35" s="4"/>
       <c r="AE35" s="4"/>
       <c r="AF35" s="4"/>
@@ -3129,7 +3133,7 @@
         <v>4693895980</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L36" s="4" t="s">
         <v>73</v>
@@ -3148,18 +3152,14 @@
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
-      <c r="W36" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="W36" s="4"/>
       <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
       <c r="AA36" s="4"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
-      <c r="AD36" s="4" t="s">
-        <v>86</v>
-      </c>
+      <c r="AD36" s="4"/>
       <c r="AE36" s="4"/>
       <c r="AF36" s="4"/>
     </row>
@@ -3195,7 +3195,7 @@
         <v>4693895980</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>73</v>
@@ -3257,7 +3257,7 @@
         <v>4693895980</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L38" s="4" t="s">
         <v>73</v>
@@ -3276,14 +3276,18 @@
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
+      <c r="W38" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="X38" s="4"/>
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
-      <c r="AD38" s="4"/>
+      <c r="AD38" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="AE38" s="4"/>
       <c r="AF38" s="4"/>
     </row>
@@ -3319,7 +3323,7 @@
         <v>4693895980</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L39" s="4" t="s">
         <v>73</v>
@@ -3381,7 +3385,7 @@
         <v>4693895980</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L40" s="4" t="s">
         <v>73</v>
@@ -3400,14 +3404,18 @@
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
-      <c r="W40" s="4"/>
+      <c r="W40" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="X40" s="4"/>
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
       <c r="AA40" s="4"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
-      <c r="AD40" s="4"/>
+      <c r="AD40" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="AE40" s="4"/>
       <c r="AF40" s="4"/>
     </row>
@@ -3443,7 +3451,7 @@
         <v>4693895980</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L41" s="4" t="s">
         <v>73</v>
@@ -3505,7 +3513,7 @@
         <v>4693895980</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L42" s="4" t="s">
         <v>73</v>
@@ -3534,7 +3542,7 @@
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
       <c r="AD42" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE42" s="4"/>
       <c r="AF42" s="4"/>
@@ -3571,13 +3579,13 @@
         <v>4693895980</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="L43" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M43" s="4">
-        <v>100</v>
+      <c r="M43" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="N43" s="4">
         <v>1</v>
@@ -3590,7 +3598,9 @@
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
-      <c r="W43" s="4"/>
+      <c r="W43" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="X43" s="4"/>
       <c r="Y43" s="4"/>
       <c r="Z43" s="4"/>
@@ -3598,7 +3608,9 @@
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
       <c r="AD43" s="4"/>
-      <c r="AE43" s="4"/>
+      <c r="AE43" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="AF43" s="4"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.35">
@@ -3633,13 +3645,13 @@
         <v>4693895980</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="L44" s="4" t="s">
         <v>73</v>
       </c>
       <c r="M44" s="4">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N44" s="4">
         <v>1</v>
@@ -3661,10 +3673,10 @@
       <c r="AA44" s="4"/>
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
-      <c r="AD44" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE44" s="4"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="AF44" s="4"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.35">
@@ -3699,13 +3711,13 @@
         <v>4693895980</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="L45" s="4" t="s">
         <v>73</v>
       </c>
       <c r="M45" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N45" s="4">
         <v>1</v>
@@ -3718,7 +3730,9 @@
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
-      <c r="W45" s="4"/>
+      <c r="W45" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="X45" s="4"/>
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
@@ -3726,7 +3740,9 @@
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
       <c r="AD45" s="4"/>
-      <c r="AE45" s="4"/>
+      <c r="AE45" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="AF45" s="4"/>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.35">
@@ -3761,7 +3777,7 @@
         <v>4693895980</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L46" s="4" t="s">
         <v>73</v>
@@ -3780,18 +3796,14 @@
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
-      <c r="W46" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="W46" s="4"/>
       <c r="X46" s="4"/>
       <c r="Y46" s="4"/>
       <c r="Z46" s="4"/>
       <c r="AA46" s="4"/>
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
-      <c r="AD46" s="4" t="s">
-        <v>88</v>
-      </c>
+      <c r="AD46" s="4"/>
       <c r="AE46" s="4"/>
       <c r="AF46" s="4"/>
     </row>
@@ -3832,8 +3844,8 @@
       <c r="L47" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M47" s="5" t="s">
-        <v>67</v>
+      <c r="M47" s="5">
+        <v>199</v>
       </c>
       <c r="N47" s="4">
         <v>1</v>
@@ -3846,9 +3858,7 @@
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
-      <c r="W47" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="W47" s="4"/>
       <c r="X47" s="4"/>
       <c r="Y47" s="4"/>
       <c r="Z47" s="4"/>
@@ -3856,9 +3866,7 @@
       <c r="AB47" s="4"/>
       <c r="AC47" s="4"/>
       <c r="AD47" s="4"/>
-      <c r="AE47" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="AE47" s="4"/>
       <c r="AF47" s="4"/>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.35">
@@ -3899,7 +3907,7 @@
         <v>73</v>
       </c>
       <c r="M48" s="4">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="N48" s="4">
         <v>1</v>
@@ -3965,7 +3973,7 @@
         <v>73</v>
       </c>
       <c r="M49" s="4">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="N49" s="4">
         <v>1</v>
@@ -4033,8 +4041,8 @@
       <c r="M50" s="4">
         <v>100</v>
       </c>
-      <c r="N50" s="4">
-        <v>1</v>
+      <c r="N50" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
@@ -4044,7 +4052,9 @@
       <c r="T50" s="4"/>
       <c r="U50" s="4"/>
       <c r="V50" s="4"/>
-      <c r="W50" s="4"/>
+      <c r="W50" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="X50" s="4"/>
       <c r="Y50" s="4"/>
       <c r="Z50" s="4"/>
@@ -4053,7 +4063,9 @@
       <c r="AC50" s="4"/>
       <c r="AD50" s="4"/>
       <c r="AE50" s="4"/>
-      <c r="AF50" s="4"/>
+      <c r="AF50" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
@@ -4093,10 +4105,10 @@
         <v>73</v>
       </c>
       <c r="M51" s="4">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="N51" s="4">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
@@ -4106,7 +4118,9 @@
       <c r="T51" s="4"/>
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
-      <c r="W51" s="4"/>
+      <c r="W51" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="X51" s="4"/>
       <c r="Y51" s="4"/>
       <c r="Z51" s="4"/>
@@ -4115,7 +4129,9 @@
       <c r="AC51" s="4"/>
       <c r="AD51" s="4"/>
       <c r="AE51" s="4"/>
-      <c r="AF51" s="4"/>
+      <c r="AF51" s="4" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
@@ -4155,10 +4171,10 @@
         <v>73</v>
       </c>
       <c r="M52" s="4">
+        <v>100</v>
+      </c>
+      <c r="N52" s="4">
         <v>0</v>
-      </c>
-      <c r="N52" s="4">
-        <v>1</v>
       </c>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
@@ -4178,10 +4194,10 @@
       <c r="AB52" s="4"/>
       <c r="AC52" s="4"/>
       <c r="AD52" s="4"/>
-      <c r="AE52" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF52" s="4"/>
+      <c r="AE52" s="4"/>
+      <c r="AF52" s="4" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
@@ -4221,10 +4237,10 @@
         <v>73</v>
       </c>
       <c r="M53" s="4">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="N53" s="4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
@@ -4244,10 +4260,10 @@
       <c r="AB53" s="4"/>
       <c r="AC53" s="4"/>
       <c r="AD53" s="4"/>
-      <c r="AE53" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF53" s="4"/>
+      <c r="AE53" s="4"/>
+      <c r="AF53" s="4" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
@@ -4289,8 +4305,8 @@
       <c r="M54" s="4">
         <v>100</v>
       </c>
-      <c r="N54" s="5" t="s">
-        <v>68</v>
+      <c r="N54" s="5">
+        <v>1</v>
       </c>
       <c r="O54" s="5"/>
       <c r="P54" s="5"/>
@@ -4300,9 +4316,7 @@
       <c r="T54" s="5"/>
       <c r="U54" s="5"/>
       <c r="V54" s="5"/>
-      <c r="W54" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="W54" s="4"/>
       <c r="X54" s="4"/>
       <c r="Y54" s="4"/>
       <c r="Z54" s="4"/>
@@ -4311,9 +4325,7 @@
       <c r="AC54" s="4"/>
       <c r="AD54" s="4"/>
       <c r="AE54" s="4"/>
-      <c r="AF54" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="AF54" s="4"/>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
@@ -4356,7 +4368,7 @@
         <v>100</v>
       </c>
       <c r="N55" s="4">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
@@ -4366,9 +4378,7 @@
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
       <c r="V55" s="4"/>
-      <c r="W55" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="W55" s="4"/>
       <c r="X55" s="4"/>
       <c r="Y55" s="4"/>
       <c r="Z55" s="4"/>
@@ -4377,61 +4387,75 @@
       <c r="AC55" s="4"/>
       <c r="AD55" s="4"/>
       <c r="AE55" s="4"/>
-      <c r="AF55" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="AF55" s="4"/>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
         <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="C56" s="4">
-        <v>234</v>
+        <v>20</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>71</v>
       </c>
       <c r="J56" s="4">
-        <v>4693895980</v>
+        <v>9701721112</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="M56" s="4">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="N56" s="4">
-        <v>0</v>
-      </c>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="4"/>
-      <c r="U56" s="4"/>
-      <c r="V56" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="P56" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q56" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="R56" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="S56" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="T56" s="4">
+        <v>9701721112</v>
+      </c>
+      <c r="U56" s="4">
+        <v>15</v>
+      </c>
+      <c r="V56" s="4">
+        <v>123</v>
+      </c>
       <c r="W56" s="4" t="s">
         <v>69</v>
       </c>
@@ -4439,68 +4463,82 @@
       <c r="Y56" s="4"/>
       <c r="Z56" s="4"/>
       <c r="AA56" s="4"/>
-      <c r="AB56" s="4"/>
+      <c r="AB56" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="AC56" s="4"/>
       <c r="AD56" s="4"/>
       <c r="AE56" s="4"/>
-      <c r="AF56" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="AF56" s="4"/>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
         <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="C57" s="4">
-        <v>234</v>
+        <v>20</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>71</v>
       </c>
       <c r="J57" s="4">
-        <v>4693895980</v>
+        <v>9701721112</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="M57" s="4">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="N57" s="4">
-        <v>16</v>
-      </c>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
-      <c r="S57" s="4"/>
-      <c r="T57" s="4"/>
-      <c r="U57" s="4"/>
-      <c r="V57" s="4"/>
-      <c r="W57" s="4" t="s">
-        <v>69</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="O57" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="P57" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q57" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="R57" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="S57" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="T57" s="4">
+        <v>9701721112</v>
+      </c>
+      <c r="U57" s="4">
+        <v>15</v>
+      </c>
+      <c r="V57" s="4">
+        <v>123</v>
+      </c>
+      <c r="W57" s="4"/>
       <c r="X57" s="4"/>
       <c r="Y57" s="4"/>
       <c r="Z57" s="4"/>
@@ -4509,61 +4547,75 @@
       <c r="AC57" s="4"/>
       <c r="AD57" s="4"/>
       <c r="AE57" s="4"/>
-      <c r="AF57" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="AF57" s="4"/>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="C58" s="4">
-        <v>234</v>
+        <v>20</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>71</v>
       </c>
       <c r="J58" s="4">
-        <v>4693895980</v>
+        <v>9701721112</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="M58" s="4">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="N58" s="4">
-        <v>1</v>
-      </c>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
-      <c r="S58" s="4"/>
-      <c r="T58" s="4"/>
-      <c r="U58" s="4"/>
-      <c r="V58" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="O58" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="P58" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q58" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="R58" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="S58" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="T58" s="4">
+        <v>9701721112</v>
+      </c>
+      <c r="U58" s="4">
+        <v>15</v>
+      </c>
+      <c r="V58" s="4">
+        <v>123</v>
+      </c>
       <c r="W58" s="4"/>
       <c r="X58" s="4"/>
       <c r="Y58" s="4"/>
@@ -4580,52 +4632,68 @@
         <v>57</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="C59" s="4">
-        <v>234</v>
+        <v>20</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>71</v>
       </c>
       <c r="J59" s="4">
-        <v>4693895980</v>
+        <v>9701721112</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="M59" s="4">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="N59" s="4">
         <v>15</v>
       </c>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
-      <c r="S59" s="4"/>
-      <c r="T59" s="4"/>
-      <c r="U59" s="4"/>
-      <c r="V59" s="4"/>
+      <c r="O59" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="P59" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q59" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="R59" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="S59" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="T59" s="4">
+        <v>9701721112</v>
+      </c>
+      <c r="U59" s="4">
+        <v>15</v>
+      </c>
+      <c r="V59" s="4">
+        <v>123</v>
+      </c>
       <c r="W59" s="4"/>
       <c r="X59" s="4"/>
       <c r="Y59" s="4"/>
@@ -4690,7 +4758,7 @@
         <v>103</v>
       </c>
       <c r="R60" s="4" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="S60" s="4" t="s">
         <v>105</v>
@@ -4704,16 +4772,12 @@
       <c r="V60" s="7">
         <v>123</v>
       </c>
-      <c r="W60" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="W60" s="4"/>
       <c r="X60" s="4"/>
       <c r="Y60" s="4"/>
       <c r="Z60" s="4"/>
       <c r="AA60" s="4"/>
-      <c r="AB60" s="4" t="s">
-        <v>106</v>
-      </c>
+      <c r="AB60" s="4"/>
       <c r="AC60" s="4"/>
       <c r="AD60" s="4"/>
       <c r="AE60" s="4"/>
@@ -4763,7 +4827,7 @@
         <v>15</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="P61" s="4" t="s">
         <v>102</v>
@@ -4775,7 +4839,7 @@
         <v>104</v>
       </c>
       <c r="S61" s="4" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="T61" s="4">
         <v>9701721112</v>
@@ -4844,7 +4908,7 @@
         <v>101</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="Q62" s="4" t="s">
         <v>103</v>
@@ -4856,7 +4920,7 @@
         <v>105</v>
       </c>
       <c r="T62" s="4">
-        <v>9701721112</v>
+        <v>9701721113</v>
       </c>
       <c r="U62" s="7">
         <v>15</v>
@@ -4925,7 +4989,7 @@
         <v>102</v>
       </c>
       <c r="Q63" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="R63" s="4" t="s">
         <v>104</v>
@@ -4937,7 +5001,7 @@
         <v>9701721112</v>
       </c>
       <c r="U63" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="V63" s="7">
         <v>123</v>
@@ -5006,7 +5070,7 @@
         <v>103</v>
       </c>
       <c r="R64" s="8" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="S64" s="4" t="s">
         <v>105</v>
@@ -5018,7 +5082,7 @@
         <v>15</v>
       </c>
       <c r="V64" s="7">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="W64" s="4"/>
       <c r="X64" s="4"/>
@@ -5036,68 +5100,32 @@
         <v>63</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C65" s="7">
-        <v>20</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C65" s="7"/>
       <c r="D65" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E65" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>102</v>
-      </c>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
       <c r="G65" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H65" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J65" s="4">
-        <v>9701721112</v>
-      </c>
-      <c r="K65" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="L65" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="M65" s="7">
-        <v>123</v>
-      </c>
-      <c r="N65" s="7">
-        <v>15</v>
-      </c>
-      <c r="O65" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="P65" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q65" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="R65" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="S65" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="T65" s="4">
-        <v>9701721112</v>
-      </c>
-      <c r="U65" s="7">
-        <v>15</v>
-      </c>
-      <c r="V65" s="7">
-        <v>123</v>
-      </c>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
+      <c r="S65" s="4"/>
+      <c r="T65" s="4"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="7"/>
       <c r="W65" s="4"/>
       <c r="X65" s="4"/>
       <c r="Y65" s="4"/>
@@ -5114,70 +5142,36 @@
         <v>64</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C66" s="7">
-        <v>20</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C66" s="7"/>
       <c r="D66" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E66" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>102</v>
-      </c>
+      <c r="E66" s="4"/>
+      <c r="F66" s="7"/>
       <c r="G66" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J66" s="4">
-        <v>9701721112</v>
-      </c>
-      <c r="K66" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="L66" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="M66" s="7">
-        <v>123</v>
-      </c>
-      <c r="N66" s="7">
-        <v>15</v>
-      </c>
-      <c r="O66" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="P66" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q66" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="R66" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="S66" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="T66" s="4">
-        <v>9701721113</v>
-      </c>
-      <c r="U66" s="7">
-        <v>15</v>
-      </c>
-      <c r="V66" s="7">
-        <v>123</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
+      <c r="S66" s="4"/>
+      <c r="T66" s="4"/>
+      <c r="U66" s="7"/>
+      <c r="V66" s="7"/>
       <c r="W66" s="4"/>
-      <c r="X66" s="4"/>
+      <c r="X66" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
       <c r="AA66" s="4"/>
@@ -5192,70 +5186,36 @@
         <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C67" s="7">
-        <v>20</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C67" s="7"/>
       <c r="D67" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>102</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
       <c r="G67" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H67" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J67" s="4">
-        <v>9701721112</v>
-      </c>
-      <c r="K67" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="L67" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="M67" s="7">
-        <v>123</v>
-      </c>
-      <c r="N67" s="7">
-        <v>15</v>
-      </c>
-      <c r="O67" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="P67" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q67" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="R67" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="S67" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="T67" s="4">
-        <v>9701721112</v>
-      </c>
-      <c r="U67" s="7">
-        <v>9</v>
-      </c>
-      <c r="V67" s="7">
-        <v>123</v>
-      </c>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4"/>
+      <c r="S67" s="4"/>
+      <c r="T67" s="4"/>
+      <c r="U67" s="7"/>
+      <c r="V67" s="7"/>
       <c r="W67" s="4"/>
-      <c r="X67" s="4"/>
+      <c r="X67" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="Y67" s="4"/>
       <c r="Z67" s="4"/>
       <c r="AA67" s="4"/>
@@ -5265,214 +5225,6 @@
       <c r="AE67" s="4"/>
       <c r="AF67" s="4"/>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A68" s="7">
-        <v>66</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C68" s="7">
-        <v>20</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J68" s="4">
-        <v>9701721112</v>
-      </c>
-      <c r="K68" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="L68" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="M68" s="7">
-        <v>123</v>
-      </c>
-      <c r="N68" s="7">
-        <v>15</v>
-      </c>
-      <c r="O68" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="P68" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q68" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="R68" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="S68" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="T68" s="4">
-        <v>9701721112</v>
-      </c>
-      <c r="U68" s="7">
-        <v>15</v>
-      </c>
-      <c r="V68" s="7">
-        <v>150</v>
-      </c>
-      <c r="W68" s="4"/>
-      <c r="X68" s="4"/>
-      <c r="Y68" s="4"/>
-      <c r="Z68" s="4"/>
-      <c r="AA68" s="4"/>
-      <c r="AB68" s="4"/>
-      <c r="AC68" s="4"/>
-      <c r="AD68" s="4"/>
-      <c r="AE68" s="4"/>
-      <c r="AF68" s="4"/>
-    </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A69" s="7">
-        <v>67</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="4"/>
-      <c r="R69" s="4"/>
-      <c r="S69" s="4"/>
-      <c r="T69" s="4"/>
-      <c r="U69" s="4"/>
-      <c r="V69" s="4"/>
-      <c r="W69" s="4"/>
-      <c r="X69" s="4"/>
-      <c r="Y69" s="4"/>
-      <c r="Z69" s="4"/>
-      <c r="AA69" s="4"/>
-      <c r="AB69" s="4"/>
-      <c r="AC69" s="4"/>
-      <c r="AD69" s="4"/>
-      <c r="AE69" s="4"/>
-      <c r="AF69" s="4"/>
-    </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A70" s="7">
-        <v>68</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
-      <c r="P70" s="4"/>
-      <c r="Q70" s="4"/>
-      <c r="R70" s="4"/>
-      <c r="S70" s="4"/>
-      <c r="T70" s="4"/>
-      <c r="U70" s="4"/>
-      <c r="V70" s="4"/>
-      <c r="W70" s="4"/>
-      <c r="X70" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y70" s="4"/>
-      <c r="Z70" s="4"/>
-      <c r="AA70" s="4"/>
-      <c r="AB70" s="4"/>
-      <c r="AC70" s="4"/>
-      <c r="AD70" s="4"/>
-      <c r="AE70" s="4"/>
-      <c r="AF70" s="4"/>
-    </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A71" s="7">
-        <v>69</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
-      <c r="O71" s="4"/>
-      <c r="P71" s="4"/>
-      <c r="Q71" s="4"/>
-      <c r="R71" s="4"/>
-      <c r="S71" s="4"/>
-      <c r="T71" s="4"/>
-      <c r="U71" s="4"/>
-      <c r="V71" s="4"/>
-      <c r="W71" s="4"/>
-      <c r="X71" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y71" s="4"/>
-      <c r="Z71" s="4"/>
-      <c r="AA71" s="4"/>
-      <c r="AB71" s="4"/>
-      <c r="AC71" s="4"/>
-      <c r="AD71" s="4"/>
-      <c r="AE71" s="4"/>
-      <c r="AF71" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
@@ -5480,11 +5232,7 @@
     <mergeCell ref="B1:V1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="R64" r:id="rId1" xr:uid="{9A4AA14C-4D28-4B95-B7A7-FF85A610378C}"/>
-    <hyperlink ref="G70" r:id="rId2" xr:uid="{4ABD692B-AACA-4D69-94DB-08DB7DAEA1DF}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>